--- a/biology/Zoologie/Dipodomys_nitratoides/Dipodomys_nitratoides.xlsx
+++ b/biology/Zoologie/Dipodomys_nitratoides/Dipodomys_nitratoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodomys nitratoides, est une espèce de Rongeurs de la famille des Heteromyidae. C'est un petit mammifère endémique des États-Unis, dont la survie est menacée et qui fait partie des rats-kangourous d'Amérique.
 L'espèce a été décrite pour la première fois en 1894 par un zoologiste américain, Clinton Hart Merriam (1855-1942).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipodomys nitratoides est l'un des plus petits du genre Dipodomys. Il mesure 3,5 cm.
 Il vit aux alentours de la vallée de San Joaquin et de San Andreas, en Californie.
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (17 nov. 2012)[1] et Catalogue of Life                                   (17 nov. 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (17 nov. 2012) et Catalogue of Life                                   (17 nov. 2012) :
 sous-espèce Dipodomys nitratoides brevinasus Grinnell, 1920
 sous-espèce Dipodomys nitratoides exilis Merriam, 1894
 sous-espèce Dipodomys nitratoides nitratoides Merriam, 1894</t>
